--- a/_posts/notes/notes.xlsx
+++ b/_posts/notes/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="读书" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>纸质书</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>备注</t>
@@ -168,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,13 +225,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -264,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,10 +283,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,20 +300,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,40 +322,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -640,16 +626,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
@@ -657,33 +643,33 @@
     <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="17.399999999999999">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="15.6">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -705,7 +691,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.6">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -727,7 +713,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="15.6">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -749,7 +735,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="15.6">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -771,7 +757,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.6">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -788,12 +774,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="15.6">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -813,7 +797,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="15.6">
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -833,7 +817,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
@@ -843,7 +827,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
@@ -853,7 +837,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -863,7 +847,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
@@ -873,7 +857,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
@@ -883,7 +867,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
@@ -893,7 +877,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
@@ -903,7 +887,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
@@ -913,7 +897,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
@@ -923,7 +907,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
@@ -933,7 +917,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
@@ -943,7 +927,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
@@ -953,7 +937,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
@@ -963,7 +947,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
@@ -973,7 +957,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
@@ -983,7 +967,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
@@ -993,7 +977,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
@@ -1003,7 +987,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
@@ -1013,7 +997,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="27" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
@@ -1023,7 +1007,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" ht="15.6">
+    <row r="28" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
@@ -1033,19 +1017,19 @@
       <c r="G28" s="7"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4">
+    <row r="29" spans="1:8" ht="16.95" customHeight="1">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="14.4">
+    <row r="30" spans="1:8" ht="16.95" customHeight="1">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="14.4">
+    <row r="31" spans="1:8" ht="16.95" customHeight="1">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="14.4">
+    <row r="32" spans="1:8" ht="16.95" customHeight="1">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3" ht="14.4">
+    <row r="33" spans="3:3" ht="16.95" customHeight="1">
       <c r="C33" s="3"/>
     </row>
   </sheetData>
@@ -1065,7 +1049,7 @@
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
-      <formula1>"纸质书,微信阅读,十月阅读,PDF,其它"</formula1>
+      <formula1>"纸质书,微信阅读,十点读书,PDF,其它"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1077,81 +1061,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="27.21875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="14.5546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="16"/>
+    <col min="2" max="2" width="27.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="16" customWidth="1"/>
+    <col min="5" max="6" width="14.5546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="17.399999999999999">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="16">
+        <v>6.7</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="17">
-        <v>7.8</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="17">
-        <v>6.7</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1176,23 +1160,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.600000000000001" customHeight="1">
+      <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.600000000000001" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/notes/notes.xlsx
+++ b/_posts/notes/notes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,23 @@
   </si>
   <si>
     <t>2012-02-24(美国)</t>
+  </si>
+  <si>
+    <t>《林肯传》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《朱元璋传》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [美] 卡耐基</t>
+  </si>
+  <si>
+    <t>十点读书</t>
+  </si>
+  <si>
+    <t> 吴晗</t>
   </si>
 </sst>
 </file>
@@ -624,11 +641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
@@ -762,19 +779,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
@@ -782,19 +801,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C7" s="10">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
@@ -802,13 +823,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>22</v>
@@ -817,25 +838,45 @@
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10">
+        <v>8.6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A11" s="6"/>
@@ -1017,11 +1058,25 @@
       <c r="G28" s="7"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="16.95" customHeight="1">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.95" customHeight="1">
-      <c r="C30" s="3"/>
+    <row r="29" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="16.95" customHeight="1">
       <c r="C31" s="3"/>
@@ -1032,23 +1087,29 @@
     <row r="33" spans="3:3" ht="16.95" customHeight="1">
       <c r="C33" s="3"/>
     </row>
+    <row r="34" spans="3:3" ht="16.95" customHeight="1">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" ht="16.95" customHeight="1">
+      <c r="C35" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:O1748">
+  <conditionalFormatting sqref="A2:O1750">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>"$G2=""是“"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H8">
+  <conditionalFormatting sqref="A2:H10">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
       <formula1>"纸质书,微信阅读,十点读书,PDF,其它"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_posts/notes/notes.xlsx
+++ b/_posts/notes/notes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,23 +158,6 @@
   </si>
   <si>
     <t>2012-02-24(美国)</t>
-  </si>
-  <si>
-    <t>《林肯传》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《朱元璋传》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> [美] 卡耐基</t>
-  </si>
-  <si>
-    <t>十点读书</t>
-  </si>
-  <si>
-    <t> 吴晗</t>
   </si>
 </sst>
 </file>
@@ -641,11 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
@@ -779,21 +762,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
@@ -801,21 +782,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
@@ -823,13 +802,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="10">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>22</v>
@@ -838,45 +817,25 @@
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10">
-        <v>8.6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10">
-        <v>8.5</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9"/>
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A11" s="6"/>
@@ -1058,25 +1017,11 @@
       <c r="G28" s="7"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
+    <row r="29" spans="1:8" ht="16.95" customHeight="1">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.95" customHeight="1">
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="16.95" customHeight="1">
       <c r="C31" s="3"/>
@@ -1087,29 +1032,23 @@
     <row r="33" spans="3:3" ht="16.95" customHeight="1">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3" ht="16.95" customHeight="1">
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="3:3" ht="16.95" customHeight="1">
-      <c r="C35" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:O1750">
+  <conditionalFormatting sqref="A2:O1748">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>"$G2=""是“"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H10">
+  <conditionalFormatting sqref="A2:H8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G29">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
       <formula1>"纸质书,微信阅读,十点读书,PDF,其它"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_posts/notes/notes.xlsx
+++ b/_posts/notes/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9816"/>
   </bookViews>
   <sheets>
     <sheet name="读书" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,16 @@
   </si>
   <si>
     <t>2012-02-24(美国)</t>
+  </si>
+  <si>
+    <t>《林肯传》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [美] 卡耐基</t>
+  </si>
+  <si>
+    <t>十点读书</t>
   </si>
 </sst>
 </file>
@@ -228,7 +238,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF7030A0"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -243,7 +253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
@@ -762,19 +772,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
@@ -782,13 +794,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>22</v>
@@ -802,13 +814,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>22</v>
@@ -817,15 +829,25 @@
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A10" s="6"/>
@@ -1017,8 +1039,15 @@
       <c r="G28" s="7"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="16.95" customHeight="1">
-      <c r="C29" s="3"/>
+    <row r="29" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="16.95" customHeight="1">
       <c r="C30" s="3"/>
@@ -1032,23 +1061,26 @@
     <row r="33" spans="3:3" ht="16.95" customHeight="1">
       <c r="C33" s="3"/>
     </row>
+    <row r="34" spans="3:3" ht="16.95" customHeight="1">
+      <c r="C34" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:O1748">
+  <conditionalFormatting sqref="A2:O1749">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>"$G2=""是“"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H8">
+  <conditionalFormatting sqref="A2:H9">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
       <formula1>"纸质书,微信阅读,十点读书,PDF,其它"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_posts/notes/notes.xlsx
+++ b/_posts/notes/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9816"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9816" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="读书" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,23 +131,10 @@
     <t>110分钟</t>
   </si>
   <si>
-    <t>观影时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剧情 / 动作 / 战争</t>
-  </si>
-  <si>
-    <t>金融决战 마스터 (2016)</t>
-  </si>
-  <si>
-    <t>动作 / 犯罪</t>
-  </si>
-  <si>
     <t>143分钟</t>
   </si>
   <si>
@@ -168,6 +155,56 @@
   </si>
   <si>
     <t>十点读书</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">金融决战 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>마스터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t> (2016)</t>
+    </r>
+  </si>
+  <si>
+    <t>观看日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情/动作/战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作/犯罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误杀 (2019)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-13(中国大陆)</t>
+  </si>
+  <si>
+    <t>剧情/悬疑/犯罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112分钟</t>
   </si>
 </sst>
 </file>
@@ -178,7 +215,7 @@
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,12 +267,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="4" tint="-0.249977111117893"/>
@@ -243,8 +274,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,9 +377,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -329,15 +384,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
@@ -653,29 +716,29 @@
     <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -772,16 +835,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" s="10">
         <v>7.9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="11" t="s">
@@ -1091,88 +1154,1068 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="16"/>
-    <col min="2" max="2" width="27.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="16" customWidth="1"/>
-    <col min="5" max="6" width="14.5546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="15"/>
+    <col min="2" max="2" width="33" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="17.399999999999999">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="17.399999999999999">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="20">
+        <v>7.8</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.2">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="20">
+        <v>6.7</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="16">
-        <v>7.8</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="16">
-        <v>6.7</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="20">
+        <v>7.7</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.6">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.6">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.6">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.6">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.6">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.6">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.6">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.6">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.6">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.6">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.6">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.6">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.6">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.6">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.6">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.6">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.6">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.6">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.6">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.6">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.6">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.6">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.6">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.6">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.6">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.6">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.6">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.6">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.6">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.6">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.6">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.6">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.6">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.6">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.6">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.6">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.6">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.6">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.6">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.6">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.6">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.6">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.6">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.6">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.6">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.6">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.6">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.6">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.6">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.6">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.6">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.6">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.6">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.6">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.6">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.6">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.6">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.6">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.6">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.6">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.6">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.6">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.6">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.6">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.6">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.6">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.6">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.6">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.6">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.6">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.6">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.6">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.6">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.6">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.6">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.6">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.6">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.6">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.6">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.6">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.6">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.6">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.6">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.6">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.6">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+    </row>
+    <row r="103" spans="1:7" ht="14.4">
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+    </row>
+    <row r="104" spans="1:7" ht="14.4">
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+    </row>
+    <row r="105" spans="1:7" ht="14.4">
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+    </row>
+    <row r="106" spans="1:7" ht="14.4">
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="1:7" ht="14.4">
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+    </row>
+    <row r="108" spans="1:7" ht="14.4">
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+    </row>
+    <row r="109" spans="1:7" ht="14.4">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+    </row>
+    <row r="110" spans="1:7" ht="14.4">
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1196,7 +2239,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.600000000000001" customHeight="1">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">

--- a/_posts/notes/notes.xlsx
+++ b/_posts/notes/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9816" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9816"/>
   </bookViews>
   <sheets>
     <sheet name="读书" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,22 @@
   </si>
   <si>
     <t>112分钟</t>
+  </si>
+  <si>
+    <t>《格局》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《杀死一只知更鸟》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[美] 哈珀·李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -343,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,11 +418,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -699,9 +735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
@@ -913,24 +949,48 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="16.95" customHeight="1">
       <c r="A12" s="6"/>
@@ -1130,12 +1190,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:O1749">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>"$G2=""是“"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:H11">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G2="是"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1143,7 +1203,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11">
       <formula1>"纸质书,微信阅读,十点读书,PDF,其它"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1156,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
